--- a/Vehicles_Params_Summary.xlsx
+++ b/Vehicles_Params_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/mmar_purdue_edu/Documents/Mywork/PhD Thesis/Thesis Defense Proposal/AED/Autonomous Eco Driving for  Battery Electric Delivery Vehicle/Energy Consumption Modeling for Delivery Electric Vehicles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cob_e\BEV_Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="426" documentId="11_F25DC773A252ABDACC104814919D659C5BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43DF8ED5-AA18-4C03-8864-C614B66D2696}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3B9B42-AD15-4F9E-9591-16D7E87B0033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery EV - Dataset" sheetId="2" r:id="rId1"/>
@@ -549,10 +549,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -821,42 +817,42 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="12" width="13" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" customWidth="1"/>
     <col min="20" max="20" width="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6640625" customWidth="1"/>
+    <col min="26" max="26" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>66</v>
       </c>
@@ -957,7 +953,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -990,7 +986,7 @@
         <v>7.8</v>
       </c>
       <c r="K2">
-        <v>0.875</v>
+        <v>2.9750000000000001</v>
       </c>
       <c r="L2">
         <v>48</v>
@@ -1029,7 +1025,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -1107,7 +1103,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1176,7 +1172,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1239,7 +1235,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1305,7 +1301,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1368,7 +1364,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1455,23 +1451,23 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.6640625" customWidth="1"/>
-    <col min="3" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
+    <col min="3" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
@@ -1485,7 +1481,7 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +1501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1525,7 +1521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1545,7 +1541,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1561,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1585,7 +1581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1605,7 +1601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1625,7 +1621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1645,7 +1641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1665,7 +1661,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1685,7 +1681,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1705,7 +1701,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1725,7 +1721,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,7 +1741,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1765,7 +1761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1785,7 +1781,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1805,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1825,7 +1821,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>36</v>
       </c>
@@ -1833,7 +1829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>62</v>
       </c>
@@ -1844,7 +1840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>39</v>
       </c>
@@ -1860,7 +1856,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>41</v>
       </c>
@@ -1868,7 +1864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -1876,7 +1872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>45</v>
       </c>
@@ -1884,7 +1880,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>47</v>
       </c>
@@ -1892,7 +1888,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
@@ -1900,7 +1896,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>50</v>
       </c>
@@ -1908,7 +1904,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>52</v>
       </c>
@@ -1916,7 +1912,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>54</v>
       </c>
@@ -1924,7 +1920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>56</v>
       </c>
@@ -1932,7 +1928,7 @@
         <v>1.3174999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>57</v>
       </c>
@@ -1940,7 +1936,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>59</v>
       </c>
@@ -1948,7 +1944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>61</v>
       </c>
@@ -1973,12 +1969,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>80</v>
       </c>

--- a/Vehicles_Params_Summary.xlsx
+++ b/Vehicles_Params_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cob_e\BEV_Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3B9B42-AD15-4F9E-9591-16D7E87B0033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D269114-1BB3-4750-A57C-C4EFA54FEE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery EV - Dataset" sheetId="2" r:id="rId1"/>
@@ -408,8 +408,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -506,7 +507,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -532,6 +533,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -817,7 +819,7 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,9 +983,8 @@
       <c r="I2" t="s">
         <v>107</v>
       </c>
-      <c r="J2">
-        <f>7.8/1</f>
-        <v>7.8</v>
+      <c r="J2" s="11">
+        <v>3</v>
       </c>
       <c r="K2">
         <v>2.9750000000000001</v>

--- a/Vehicles_Params_Summary.xlsx
+++ b/Vehicles_Params_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cob_e\BEV_Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D269114-1BB3-4750-A57C-C4EFA54FEE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C690F2-DEAD-4C84-B396-2DDE9CB5D499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="1095" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery EV - Dataset" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
   <si>
     <t>Parameter</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>Coulomb_Eff</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz_2</t>
   </si>
 </sst>
 </file>
@@ -530,10 +533,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -819,7 +822,7 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +986,7 @@
       <c r="I2" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="10">
         <v>3</v>
       </c>
       <c r="K2">
@@ -1367,7 +1370,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>113</v>
@@ -1472,15 +1475,15 @@
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">

--- a/Vehicles_Params_Summary.xlsx
+++ b/Vehicles_Params_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cob_e\BEV_Modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\BEV_Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C690F2-DEAD-4C84-B396-2DDE9CB5D499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{880C95CC-106F-48C1-BAB5-6EC14F36D287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1095" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery EV - Dataset" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Road Conditions Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -467,7 +468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +478,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFAFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +517,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -534,6 +541,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,42 +833,43 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
     <col min="10" max="12" width="13" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5546875" customWidth="1"/>
     <col min="20" max="20" width="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.7109375" customWidth="1"/>
+    <col min="26" max="26" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>66</v>
       </c>
@@ -876,7 +888,7 @@
       <c r="F1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>102</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -958,7 +970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -977,7 +989,7 @@
       <c r="F2">
         <v>245</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="12">
         <v>2340</v>
       </c>
       <c r="H2">
@@ -990,16 +1002,16 @@
         <v>3</v>
       </c>
       <c r="K2">
-        <v>2.9750000000000001</v>
+        <v>3.448</v>
       </c>
       <c r="L2">
         <v>48</v>
       </c>
       <c r="M2">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="N2">
-        <v>3.21</v>
+        <v>3.448</v>
       </c>
       <c r="O2">
         <v>0.02</v>
@@ -1029,7 +1041,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -1048,7 +1060,7 @@
       <c r="F3">
         <v>260</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="12">
         <v>6668</v>
       </c>
       <c r="H3">
@@ -1062,16 +1074,16 @@
         <v>7.8</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>3.629</v>
       </c>
       <c r="L3">
         <v>48</v>
       </c>
       <c r="M3">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="N3">
-        <v>3.21</v>
+        <v>3.629</v>
       </c>
       <c r="O3">
         <v>0.02</v>
@@ -1107,7 +1119,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1126,7 +1138,7 @@
       <c r="F4">
         <v>350</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="12">
         <v>7716</v>
       </c>
       <c r="H4">
@@ -1140,16 +1152,18 @@
         <v>7.8</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <f>2.05*2.52</f>
+        <v>5.1659999999999995</v>
       </c>
       <c r="L4">
         <v>48</v>
       </c>
       <c r="M4">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="N4">
-        <v>3.21</v>
+        <f>2.05*2.52</f>
+        <v>5.1659999999999995</v>
       </c>
       <c r="O4">
         <v>0.02</v>
@@ -1176,7 +1190,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1195,7 +1209,7 @@
       <c r="F5">
         <v>200</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="12">
         <v>10000</v>
       </c>
       <c r="H5">
@@ -1209,16 +1223,16 @@
         <v>7.8</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>4.8259999999999996</v>
       </c>
       <c r="L5">
         <v>48</v>
       </c>
       <c r="M5">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
-        <v>3.21</v>
+        <v>4.8259999999999996</v>
       </c>
       <c r="O5">
         <v>0.02</v>
@@ -1239,7 +1253,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1258,7 +1272,7 @@
       <c r="F6">
         <v>429</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="12">
         <v>9500</v>
       </c>
       <c r="H6">
@@ -1272,7 +1286,7 @@
         <v>7.8</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>3.21</v>
       </c>
       <c r="L6">
         <v>48</v>
@@ -1305,7 +1319,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1324,7 +1338,7 @@
       <c r="F7">
         <v>150</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="12">
         <v>7054</v>
       </c>
       <c r="H7">
@@ -1338,7 +1352,7 @@
         <v>7.8</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>3.21</v>
       </c>
       <c r="L7">
         <v>48</v>
@@ -1368,7 +1382,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -1387,7 +1401,7 @@
       <c r="F8">
         <v>338</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="12">
         <v>9370</v>
       </c>
       <c r="H8">
@@ -1401,7 +1415,7 @@
         <v>7.8</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>3.21</v>
       </c>
       <c r="L8">
         <v>48</v>
@@ -1455,37 +1469,37 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +1519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1525,7 +1539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1545,7 +1559,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1579,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1585,7 +1599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1605,7 +1619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1625,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1645,7 +1659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1665,7 +1679,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1685,7 +1699,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1705,7 +1719,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1725,7 +1739,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,7 +1759,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1765,7 +1779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1785,7 +1799,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1805,7 +1819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1825,7 +1839,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>36</v>
       </c>
@@ -1833,7 +1847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>62</v>
       </c>
@@ -1844,7 +1858,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>39</v>
       </c>
@@ -1860,7 +1874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>41</v>
       </c>
@@ -1868,7 +1882,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -1876,7 +1890,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>45</v>
       </c>
@@ -1884,7 +1898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>47</v>
       </c>
@@ -1892,7 +1906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
@@ -1900,7 +1914,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>50</v>
       </c>
@@ -1908,7 +1922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>52</v>
       </c>
@@ -1916,7 +1930,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>54</v>
       </c>
@@ -1924,7 +1938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>56</v>
       </c>
@@ -1932,7 +1946,7 @@
         <v>1.3174999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>57</v>
       </c>
@@ -1940,7 +1954,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>59</v>
       </c>
@@ -1948,7 +1962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>61</v>
       </c>
@@ -1973,12 +1987,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>80</v>
       </c>
